--- a/Plotting/Latex/filtered_data_Zeeland.xlsx
+++ b/Plotting/Latex/filtered_data_Zeeland.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,31 +572,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conventional cracker existing</t>
+          <t>Conventional cracker with \acs{CC}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>t naphtha/h</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>\% captured</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -615,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Electric cracker</t>
+          <t>Conventional cracker existing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,23 +619,33 @@
           <t>t naphtha/h</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -648,27 +654,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Conventional reformer</t>
+          <t>Conventional cracker existing with \acs{CC}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MW gas</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1626</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>\% captured</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -687,41 +697,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Conventional reformer existing</t>
+          <t>Electric cracker</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MW gas</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>t naphtha/h</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -730,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electric reformer</t>
+          <t>Conventional reformer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -739,22 +739,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1627</v>
       </c>
       <c r="F9" t="n">
-        <v>951</v>
-      </c>
-      <c r="G9" t="n">
-        <v>894</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -763,39 +769,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Electric reformer existing</t>
+          <t>Conventional reformer with \acs{CC}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MW gas</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>\% captured</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>894</v>
-      </c>
-      <c r="I10" t="n">
-        <v>894</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -804,31 +808,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>\acs{AEC}</t>
+          <t>Conventional reformer existing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MW electric</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>952</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>555</v>
+          <t>MW gas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>894</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -837,12 +851,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>\acs{AEC} existing</t>
+          <t>Conventional reformer existing with \acs{CC}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MW electric</t>
+          <t>\% captured</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -860,16 +874,18 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>894</v>
-      </c>
-      <c r="I12" t="n">
-        <v>894</v>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -878,28 +894,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>\acs{HB} process</t>
+          <t>Electric reformer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MW hydrogen</t>
+          <t>MW gas</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1325</v>
+        <v>750</v>
       </c>
       <c r="E13" t="n">
-        <v>1241</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1238</v>
+        <v>951</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="H13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -911,12 +927,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>\acs{HB} process existing</t>
+          <t>Electric reformer existing</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MW hydrogen</t>
+          <t>MW gas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -934,14 +950,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1248</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>1248</v>
+        <v>894</v>
       </c>
       <c r="I14" t="n">
-        <v>1291</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15">
@@ -950,25 +968,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methanol synthesis from syngas</t>
+          <t>\acs{AEC}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>t syngas/h</t>
+          <t>MW electric</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -983,12 +1001,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Direct methanol synthesis from \ce{CO2}</t>
+          <t>\acs{AEC} existing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
+          <t>MW electric</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -996,11 +1014,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1008,10 +1030,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17">
@@ -1020,28 +1042,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>\acs{MTO}</t>
+          <t>\acs{HB} process</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>t methanol/h</t>
+          <t>MW hydrogen</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>689</v>
+        <v>1325</v>
       </c>
       <c r="E17" t="n">
-        <v>597</v>
+        <v>1242</v>
       </c>
       <c r="F17" t="n">
-        <v>440</v>
+        <v>1238</v>
       </c>
       <c r="G17" t="n">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1053,12 +1075,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>\acs{MTO} existing</t>
+          <t>\acs{HB} process existing</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>t methanol/h</t>
+          <t>MW hydrogen</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1076,16 +1098,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G18" t="n">
+        <v>1248</v>
       </c>
       <c r="H18" t="n">
-        <v>689</v>
+        <v>1248</v>
       </c>
       <c r="I18" t="n">
-        <v>689</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="19">
@@ -1094,12 +1114,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>\acs{EDH}</t>
+          <t>Methanol synthesis from syngas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>t ethanol/h</t>
+          <t>t syngas/h</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1127,16 +1147,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>\acs{PDH}</t>
+          <t>Direct methanol synthesis from \ce{CO2}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>t propane/h</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
+          <t>t \ce{CO2}/h</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1144,8 +1166,10 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
-        <v>88</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1160,39 +1184,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>\acs{PDH} existing</t>
+          <t>\acs{MTO}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>t propane/h</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>t methanol/h</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>689</v>
+      </c>
+      <c r="E21" t="n">
+        <v>574</v>
+      </c>
+      <c r="F21" t="n">
+        <v>440</v>
+      </c>
+      <c r="G21" t="n">
+        <v>689</v>
       </c>
       <c r="H21" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1201,31 +1217,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>\acs{MPW}-to-methanol</t>
+          <t>\acs{MTO} existing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>t MPW/h</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>468</v>
-      </c>
-      <c r="E22" t="n">
-        <v>406</v>
-      </c>
-      <c r="F22" t="n">
-        <v>299</v>
-      </c>
-      <c r="G22" t="n">
-        <v>469</v>
+          <t>t methanol/h</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23">
@@ -1234,39 +1258,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>\acs{MPW}-to-methanol existing</t>
+          <t>\acs{EDH}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>t MPW/h</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>t ethanol/h</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1275,35 +1291,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>\ce{CO2} electrolysis</t>
+          <t>\acs{PDH}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>t propane/h</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
       </c>
       <c r="E24" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>261</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>88</v>
       </c>
       <c r="H24" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1312,12 +1324,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>\ce{CO2} electrolysis existing</t>
+          <t>\acs{PDH} existing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>t \ce{CO2}/h</t>
+          <t>t propane/h</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1340,13 +1352,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H25" t="n">
+        <v>88</v>
       </c>
       <c r="I25" t="n">
-        <v>146</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -1355,28 +1365,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>\acs{ASU}</t>
+          <t>\acs{MPW}-to-methanol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MW electricity</t>
+          <t>t MPW/h</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>468</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F26" t="n">
-        <v>43</v>
+        <v>299</v>
       </c>
       <c r="G26" t="n">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1388,39 +1398,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>\acs{ASU} existing</t>
+          <t>\acs{MPW}-to-methanol with \acs{CC}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MW electricity</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>\% captured</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>58</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1429,31 +1431,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gas-fired boiler</t>
+          <t>\acs{MPW}-to-methanol existing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MW gas</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>501</v>
-      </c>
-      <c r="E28" t="n">
-        <v>333</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>502</v>
+          <t>t MPW/h</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29">
@@ -1462,12 +1472,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gas-fired boiler existing</t>
+          <t>\acs{MPW}-to-methanol existing with \acs{CC}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MW gas</t>
+          <t>\% captured</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1491,10 +1501,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>502</v>
+        <v>27</v>
       </c>
       <c r="I29" t="n">
-        <v>502</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -1503,31 +1513,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electric boiler</t>
+          <t>\ce{CO2} electrolysis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MW electricity</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>379</v>
+          <t>t \ce{CO2}/h</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>678</v>
+        <v>211</v>
       </c>
       <c r="F30" t="n">
-        <v>557</v>
-      </c>
-      <c r="G30" t="n">
-        <v>383</v>
+        <v>261</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="I30" t="n">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1536,12 +1550,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electric boiler existing</t>
+          <t>\ce{CO2} electrolysis existing</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MW electricity</t>
+          <t>t \ce{CO2}/h</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1564,11 +1578,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>383</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>389</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32">
@@ -1577,28 +1593,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammonia tank</t>
+          <t>\acs{ASU}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MW electricity</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16565</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n">
-        <v>2052</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G32" t="n">
-        <v>5113</v>
+        <v>43</v>
       </c>
       <c r="H32" t="n">
-        <v>10714</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1610,12 +1626,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammonia tank existing</t>
+          <t>\acs{ASU} existing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MW electricity</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1639,10 +1655,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5113</v>
+        <v>43</v>
       </c>
       <c r="I33" t="n">
-        <v>15828</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1651,28 +1667,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Li-ion battery</t>
+          <t>Gas-fired boiler</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>MW gas</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1475</v>
+        <v>501</v>
       </c>
       <c r="E34" t="n">
-        <v>3621</v>
+        <v>333</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1581</v>
+        <v>502</v>
       </c>
       <c r="H34" t="n">
-        <v>4065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1684,12 +1700,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Li-ion battery existing</t>
+          <t>Gas-fired boiler existing</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>MW gas</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1713,10 +1729,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1581</v>
+        <v>502</v>
       </c>
       <c r="I35" t="n">
-        <v>5646</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36">
@@ -1725,31 +1741,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>\ce{CO2} buffer storage</t>
+          <t>Electric boiler</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MW electricity</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>225</v>
+        <v>379</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="G36" t="n">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="H36" t="n">
-        <v>1331</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
@@ -1758,12 +1774,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>\ce{CO2} buffer storage existing</t>
+          <t>Electric boiler existing</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MW electricity</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1787,10 +1803,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="I37" t="n">
-        <v>1514</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38">
@@ -1799,28 +1815,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hydrogen tank</t>
+          <t>Ammonia tank</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>tonne</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>957</v>
+        <v>16565</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1715</v>
+        <v>5113</v>
       </c>
       <c r="H38" t="n">
-        <v>13841</v>
+        <v>10714</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1832,12 +1848,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hydrogen tank existing</t>
+          <t>Ammonia tank existing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MWh</t>
+          <t>tonne</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1861,10 +1877,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1715</v>
+        <v>5113</v>
       </c>
       <c r="I39" t="n">
-        <v>15556</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="40">
@@ -1873,28 +1889,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ethylene tank</t>
+          <t>Li-ion battery</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MWh</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="E40" t="n">
-        <v>10721</v>
+        <v>3577</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="H40" t="n">
-        <v>5724</v>
+        <v>4065</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1906,12 +1922,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ethylene tank existing</t>
+          <t>Li-ion battery existing</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tonne</t>
+          <t>MWh</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1934,13 +1950,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H41" t="n">
+        <v>1581</v>
       </c>
       <c r="I41" t="n">
-        <v>5724</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="42">
@@ -1949,7 +1963,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Propylene tank</t>
+          <t>\ce{CO2} buffer storage</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1958,19 +1972,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E42" t="n">
-        <v>1957</v>
+        <v>54</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H42" t="n">
-        <v>3790</v>
+        <v>1331</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1982,40 +1996,264 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>\ce{CO2} buffer storage existing</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>182</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hydrogen tank</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MWh</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>957</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13841</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hydrogen tank existing</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MWh</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1715</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15556</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ethylene tank</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5336</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5724</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ethylene tank existing</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Propylene tank</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>tonne</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10251</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3790</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Propylene tank existing</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>tonne</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>3790</v>
       </c>
     </row>
